--- a/Splunk/excels/relation_entre_activite_bpsplunk_et_referentiel.xlsx
+++ b/Splunk/excels/relation_entre_activite_bpsplunk_et_referentiel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\logiciels\xampp\htdocs\Simplon\1-cybersecurite\documentations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Simplon\1-cybersecurite\2-rendu_activite\Splunk\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7895E771-5823-40A2-B332-31005C6E87B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF707A0B-1CE1-45D0-96F7-CDCA57D34DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="relation" sheetId="1" r:id="rId1"/>
@@ -340,7 +340,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>359356</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>156931</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -643,16 +643,16 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="91.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="122.6640625" customWidth="1"/>
+    <col min="1" max="1" width="91.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="122.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -660,7 +660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -668,7 +668,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -678,7 +678,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -688,7 +688,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -698,7 +698,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="54" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -708,7 +708,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -718,7 +718,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="54" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -726,7 +726,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -736,22 +736,22 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A13"/>
       <c r="B13" s="6" t="s">
         <v>16</v>
@@ -759,7 +759,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="B14" s="7" t="s">
         <v>17</v>
@@ -767,22 +767,22 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18"/>
     </row>
   </sheetData>
